--- a/data/Juntos_data_english.xlsx
+++ b/data/Juntos_data_english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\archlinux\home\kyle\dev\juntos_site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551C5E1-2042-4541-8070-0772A68BECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BADAF4-817C-46CB-8DB9-CB4257733354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1997" yWindow="-16594" windowWidth="27780" windowHeight="13131" xr2:uid="{9FACF5B9-06FA-48C4-BE9F-050CC2BB9D0D}"/>
+    <workbookView xWindow="34706" yWindow="-15377" windowWidth="27780" windowHeight="13131" xr2:uid="{9FACF5B9-06FA-48C4-BE9F-050CC2BB9D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="290">
   <si>
     <t>jurisdiction </t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>710 Alton Rd, Miami Beach, FL, 33139</t>
-  </si>
-  <si>
-    <t>Empower U community Health Center</t>
   </si>
   <si>
     <t>Empower U Community Health Center</t>
@@ -1913,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F975C666-F66F-4ED0-8AA2-F00CFF951ECC}">
   <dimension ref="A1:CS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,7 +2313,7 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>98</v>
@@ -3781,7 +3778,7 @@
         <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
         <v>115</v>
@@ -4074,7 +4071,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
         <v>118</v>
@@ -4367,7 +4364,7 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
         <v>119</v>
@@ -4660,7 +4657,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>121</v>
@@ -4950,10 +4947,10 @@
         <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
         <v>124</v>
@@ -5246,7 +5243,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
@@ -5539,7 +5536,7 @@
         <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
         <v>131</v>
@@ -5832,7 +5829,7 @@
         <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
@@ -6125,7 +6122,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
@@ -6418,7 +6415,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -6711,7 +6708,7 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
         <v>138</v>
@@ -7297,7 +7294,7 @@
         <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" t="s">
         <v>143</v>
@@ -7590,7 +7587,7 @@
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" t="s">
         <v>144</v>
@@ -7883,7 +7880,7 @@
         <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
         <v>146</v>
@@ -8176,7 +8173,7 @@
         <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -8762,7 +8759,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F24" t="s">
         <v>153</v>
@@ -10520,7 +10517,7 @@
         <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F30" t="s">
         <v>173</v>
@@ -11106,7 +11103,7 @@
         <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -11399,7 +11396,7 @@
         <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F33" t="s">
         <v>173</v>
@@ -11692,7 +11689,7 @@
         <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
         <v>173</v>
@@ -11985,7 +11982,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
         <v>173</v>
@@ -12278,7 +12275,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
         <v>173</v>
@@ -12571,7 +12568,7 @@
         <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
         <v>173</v>
@@ -12864,7 +12861,7 @@
         <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
         <v>173</v>
@@ -13157,7 +13154,7 @@
         <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
         <v>173</v>
@@ -13450,7 +13447,7 @@
         <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
         <v>173</v>
@@ -13743,7 +13740,7 @@
         <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
         <v>173</v>
@@ -14912,16 +14909,16 @@
         <v>196</v>
       </c>
       <c r="D45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" t="s">
         <v>197</v>
       </c>
-      <c r="E45" t="s">
-        <v>286</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>198</v>
-      </c>
-      <c r="G45" t="s">
-        <v>199</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -15202,19 +15199,19 @@
         <v>183</v>
       </c>
       <c r="C46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" t="s">
         <v>200</v>
       </c>
-      <c r="D46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" t="s">
-        <v>266</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>201</v>
-      </c>
-      <c r="G46" t="s">
-        <v>202</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -15495,19 +15492,19 @@
         <v>183</v>
       </c>
       <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
         <v>203</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>204</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>205</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>206</v>
-      </c>
-      <c r="G47" t="s">
-        <v>207</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -15788,19 +15785,19 @@
         <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -16081,19 +16078,19 @@
         <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" t="s">
         <v>209</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>210</v>
       </c>
-      <c r="F49" t="s">
-        <v>211</v>
-      </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -16374,19 +16371,19 @@
         <v>183</v>
       </c>
       <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
         <v>212</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" t="s">
         <v>213</v>
       </c>
-      <c r="E50" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>214</v>
-      </c>
-      <c r="G50" t="s">
-        <v>215</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -16667,19 +16664,19 @@
         <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" t="s">
         <v>216</v>
       </c>
-      <c r="E51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" t="s">
-        <v>217</v>
-      </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -16960,19 +16957,19 @@
         <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" t="s">
         <v>218</v>
       </c>
-      <c r="E52" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" t="s">
-        <v>219</v>
-      </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -17253,19 +17250,19 @@
         <v>183</v>
       </c>
       <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" t="s">
         <v>220</v>
       </c>
-      <c r="D53" t="s">
-        <v>289</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>221</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>222</v>
-      </c>
-      <c r="G53" t="s">
-        <v>223</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -17546,19 +17543,19 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" t="s">
         <v>224</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" t="s">
         <v>225</v>
       </c>
-      <c r="E54" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>226</v>
-      </c>
-      <c r="G54" t="s">
-        <v>227</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -17839,19 +17836,19 @@
         <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" t="s">
         <v>228</v>
       </c>
-      <c r="E55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" t="s">
-        <v>229</v>
-      </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -18132,19 +18129,19 @@
         <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
         <v>230</v>
       </c>
-      <c r="E56" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" t="s">
-        <v>231</v>
-      </c>
       <c r="G56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -18425,19 +18422,19 @@
         <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -18718,19 +18715,19 @@
         <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" t="s">
-        <v>234</v>
-      </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -19011,19 +19008,19 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" t="s">
         <v>235</v>
       </c>
-      <c r="E59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F59" t="s">
-        <v>236</v>
-      </c>
       <c r="G59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -19304,19 +19301,19 @@
         <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" t="s">
         <v>237</v>
       </c>
-      <c r="E60" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" t="s">
-        <v>238</v>
-      </c>
       <c r="G60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -19597,19 +19594,19 @@
         <v>183</v>
       </c>
       <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
         <v>239</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>240</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>241</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>242</v>
-      </c>
-      <c r="G61" t="s">
-        <v>243</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -19890,19 +19887,19 @@
         <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" t="s">
         <v>244</v>
       </c>
-      <c r="F62" t="s">
-        <v>245</v>
-      </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -20195,15 +20192,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001008B4EDBA94014FA166DC95F69A031B" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a8c944f4bd9402ff8a992f7f33f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99055cb7-e9fb-4ae3-be28-d81c7b0a794a" xmlns:ns3="8c8a5480-9e95-4a06-bfcb-571d9ef25dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af31915eb183a63fece39eb37dd20406" ns2:_="" ns3:_="">
     <xsd:import namespace="99055cb7-e9fb-4ae3-be28-d81c7b0a794a"/>
@@ -20464,6 +20452,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477E794C-0666-4C1D-BF74-C0480725F59F}">
   <ds:schemaRefs>
@@ -20476,14 +20473,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA24F449-E678-4E5F-8060-E1F7464FFD10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3DD33D7-A468-43F8-9D2C-8DCED6F5F834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20500,4 +20489,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA24F449-E678-4E5F-8060-E1F7464FFD10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Juntos_data_english.xlsx
+++ b/data/Juntos_data_english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\archlinux\home\kyle\dev\juntos_site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BADAF4-817C-46CB-8DB9-CB4257733354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AA075-F5C0-4614-8127-AFA247BCC756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34706" yWindow="-15377" windowWidth="27780" windowHeight="13131" xr2:uid="{9FACF5B9-06FA-48C4-BE9F-050CC2BB9D0D}"/>
+    <workbookView xWindow="-197" yWindow="-17717" windowWidth="24686" windowHeight="13131" xr2:uid="{9FACF5B9-06FA-48C4-BE9F-050CC2BB9D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -379,24 +379,15 @@
     <t>Little Havana</t>
   </si>
   <si>
-    <t>1901 S.W. 1st - 3rd FL, Miami, FL 33135</t>
-  </si>
-  <si>
     <t>Miami Beach</t>
   </si>
   <si>
-    <t>1680 Michigan Ave, Ste. 912, Miami Beach, FL 33139</t>
-  </si>
-  <si>
     <t>305-534-0503</t>
   </si>
   <si>
     <t>Oakland Park</t>
   </si>
   <si>
-    <t>871 West Oakland Park Blvd, Oakland Park, FL 33311</t>
-  </si>
-  <si>
     <t>954-567-7141</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>Liberty City</t>
   </si>
   <si>
-    <t>4690 NW 7th Ave, Miami, FL 33127</t>
-  </si>
-  <si>
     <t>305-835-0101</t>
   </si>
   <si>
@@ -496,9 +484,6 @@
     <t>Kinder (Coconut Grove)</t>
   </si>
   <si>
-    <t>3661 South Miami Avenue, Ste 806, Miami, FL 33133</t>
-  </si>
-  <si>
     <t>786-497-4000</t>
   </si>
   <si>
@@ -523,9 +508,6 @@
     <t>Project Access Foundation</t>
   </si>
   <si>
-    <t>8000 Biscayne Blvd, Miami, FL 33138</t>
-  </si>
-  <si>
     <t>305-759-4778</t>
   </si>
   <si>
@@ -541,9 +523,6 @@
     <t>Hialeah Medical</t>
   </si>
   <si>
-    <t>1435 W 49th Place, Suite 503, Hialeah, FL 33012</t>
-  </si>
-  <si>
     <t>305-787-3267</t>
   </si>
   <si>
@@ -553,9 +532,6 @@
     <t>Rapid Access Wellness (RAW) - Converge Miami</t>
   </si>
   <si>
-    <t>1951 NW 7th Ave, Suite 480, Miami, FL 33136</t>
-  </si>
-  <si>
     <t>305-243-2584</t>
   </si>
   <si>
@@ -571,9 +547,6 @@
     <t>Rapid Access Wellness Clinic at Walgreens</t>
   </si>
   <si>
-    <t>1669 Collins Avenue, Miami Beach, FL 33139</t>
-  </si>
-  <si>
     <t>305-532-7909</t>
   </si>
   <si>
@@ -604,9 +577,6 @@
     <t>Boca Raton</t>
   </si>
   <si>
-    <t>21880 FL-7, Boca Raton, FL 33428</t>
-  </si>
-  <si>
     <t>Commercial Blvd</t>
   </si>
   <si>
@@ -643,9 +613,6 @@
     <t>North Miami Health Center</t>
   </si>
   <si>
-    <t>11645 Biscayne Blvd, Suite 207, Miami, FL 33181</t>
-  </si>
-  <si>
     <t>305-538-8835</t>
   </si>
   <si>
@@ -655,9 +622,6 @@
     <t>Beverly Press Center</t>
   </si>
   <si>
-    <t>1221 71st St, Miami Beach, FL 33141</t>
-  </si>
-  <si>
     <t>Stanley C Myers</t>
   </si>
   <si>
@@ -688,9 +652,6 @@
     <t>South Miami</t>
   </si>
   <si>
-    <t>7000 SW 62nd Avenue, Suite 230, Miami, FL 33143</t>
-  </si>
-  <si>
     <t>305-740-6071</t>
   </si>
   <si>
@@ -703,9 +664,6 @@
     <t>Mercy</t>
   </si>
   <si>
-    <t>3661 S Miami Ave, Suite 202, Miami, FL 33133</t>
-  </si>
-  <si>
     <t>786-772-0320</t>
   </si>
   <si>
@@ -736,9 +694,6 @@
     <t>IDEA Miami Syringe Services Program</t>
   </si>
   <si>
-    <t>1668 NW 7th Ave, Miami, FL 33136</t>
-  </si>
-  <si>
     <t>786-606-9047</t>
   </si>
   <si>
@@ -796,144 +751,33 @@
     <t>Client Service Center</t>
   </si>
   <si>
-    <t>2800 N Andrews Ave, Wilton Manors, FL 33311</t>
-  </si>
-  <si>
     <t>954-568-7373</t>
   </si>
   <si>
     <t>https://www.browardhouse.org/</t>
   </si>
   <si>
-    <t>501 SE 18th Ct, Fort Lauderdale, FL 33316</t>
-  </si>
-  <si>
     <t>954-522-4749</t>
   </si>
   <si>
-    <t>12295 Biscayne Blvd, North Miami, FL 33181</t>
-  </si>
-  <si>
-    <t>601 E Commercial Blvd, Fort Lauderdale, FL 33334</t>
-  </si>
-  <si>
-    <t>1300 E Hallandale Beach Blvd, Hallandale Beach, FL 33009</t>
-  </si>
-  <si>
-    <t>1751 Bonaventure Blvd, Weston, FL 33326</t>
-  </si>
-  <si>
     <t>3510 Biscayne Blvd, Miami, FL, 33137</t>
   </si>
   <si>
-    <t>925 Arthur Godfrey Rd, Suite 200, Miami Beach, FL 33140</t>
-  </si>
-  <si>
-    <t>640 NE 124th St, North Miami, FL 33161</t>
-  </si>
-  <si>
     <t>1401 NE 26th St, Wilton Manors, FL  33305</t>
   </si>
   <si>
     <t>7205 NW 19th St, Miami, FL, 33126</t>
   </si>
   <si>
-    <t>2826 Northeast 8th St, Suite B-13, Homestead, FL 33033</t>
-  </si>
-  <si>
-    <t>1613 Alton Rd, Miami Beach, FL 33139</t>
-  </si>
-  <si>
-    <t>4308 Alton Rd, Miami Beach, FL 33140</t>
-  </si>
-  <si>
-    <t>4308 Alton Rd, Suite 860, Miami Beach, FL 33140</t>
-  </si>
-  <si>
-    <t>4200 SW 8th St, Coral Gables, FL 33134</t>
-  </si>
-  <si>
-    <t>11690 SW 72nd St, Miami, FL 33173</t>
-  </si>
-  <si>
-    <t>1350 W 14 St, Miami, FL 33125</t>
-  </si>
-  <si>
-    <t>2515 W Flagler St, Miami, FL 33135</t>
-  </si>
-  <si>
-    <t>708 NE 125th St, North Miami, FL 33161</t>
-  </si>
-  <si>
-    <t>10528 SW 8th St, Miami, FL 33174</t>
-  </si>
-  <si>
-    <t>750 Southeast 3rd Ave, Fort Lauderdale FL 33316</t>
-  </si>
-  <si>
-    <t>1580 NW 10th Ave, Miami, FL 33136</t>
-  </si>
-  <si>
-    <t>2691 NE 2nd Ave, Miami, FL 33137</t>
-  </si>
-  <si>
-    <t>100 Northwest 170th St, Ste 208, North Miami Beach FL 33169</t>
-  </si>
-  <si>
-    <t>2866 East Oakland Park Blvd, Fl 2, Oakland Park, FL 33306</t>
-  </si>
-  <si>
     <t>6333 North Federal Highway, Ste 302, Fort Lauderdale, FL 33308</t>
   </si>
   <si>
     <t>2097 Wilton Dr, Wilton Manors, FL 33305</t>
   </si>
   <si>
-    <t>3661 South Miami Ave, Ste 702, Miami, FL 33133</t>
-  </si>
-  <si>
-    <t>11105 Stirling Rd, Cooper City, FL 33328</t>
-  </si>
-  <si>
-    <t>4895 Palm Ave, Hialeah, FL 33012</t>
-  </si>
-  <si>
-    <t>4010 SW 137th Ave, Miami, FL 33175</t>
-  </si>
-  <si>
-    <t>15255 SW 137th Ave, Miami, FL 33177</t>
-  </si>
-  <si>
-    <t>18255 Homestead Ave, Miami, FL 33157</t>
-  </si>
-  <si>
-    <t>7801 NE 2nd Ave, Miami, FL 33138</t>
-  </si>
-  <si>
-    <t>12603 NE 7th Ave, North Miami, FL 33161</t>
-  </si>
-  <si>
-    <t>3601 Federal Hwy, Miami, FL 33137</t>
-  </si>
-  <si>
-    <t>5040 NW 7th St, Suite #170, Miami, FL 33126</t>
-  </si>
-  <si>
     <t>2760 SW 97th Ave, Suite 103, Miami, FL, 33165</t>
   </si>
   <si>
-    <t>2400 Biscayne Blvd, Miami, FL 33137</t>
-  </si>
-  <si>
-    <t>1411 Northwest 54th St, Miami, FL 33142</t>
-  </si>
-  <si>
-    <t>8790 W McNab Rd, Tamarac, FL 33321</t>
-  </si>
-  <si>
-    <t>7900 NW 27th Ave, Suite E-12, Miami, FL 33147-4909</t>
-  </si>
-  <si>
     <t>Carrie Meek</t>
   </si>
   <si>
@@ -944,6 +788,162 @@
   </si>
   <si>
     <t>Navarro CVS Specialty</t>
+  </si>
+  <si>
+    <t>1901 S.W. 1st - 3rd FL, Miami, FL, 33135</t>
+  </si>
+  <si>
+    <t>1680 Michigan Ave, Ste. 912, Miami Beach, FL, 33139</t>
+  </si>
+  <si>
+    <t>871 West Oakland Park Blvd, Oakland Park, FL, 33311</t>
+  </si>
+  <si>
+    <t>4690 NW 7th Ave, Miami, FL, 33127</t>
+  </si>
+  <si>
+    <t>640 NE 124th St, North Miami, FL, 33161</t>
+  </si>
+  <si>
+    <t>925 Arthur Godfrey Rd, Suite 200, Miami Beach, FL, 33140</t>
+  </si>
+  <si>
+    <t>750 Southeast 3rd Ave, Fort Lauderdale FL, 33316</t>
+  </si>
+  <si>
+    <t>2400 Biscayne Blvd, Miami, FL, 33137</t>
+  </si>
+  <si>
+    <t>100 Northwest 170th St, Ste 208, North Miami Beach FL, 33169</t>
+  </si>
+  <si>
+    <t>1613 Alton Rd, Miami Beach, FL, 33139</t>
+  </si>
+  <si>
+    <t>4308 Alton Rd, Miami Beach, FL, 33140</t>
+  </si>
+  <si>
+    <t>1411 Northwest 54th St, Miami, FL, 33142</t>
+  </si>
+  <si>
+    <t>3661 South Miami Avenue, Ste 806, Miami, FL, 33133</t>
+  </si>
+  <si>
+    <t>2826 Northeast 8th St, Suite B-13, Homestead, FL, 33033</t>
+  </si>
+  <si>
+    <t>2866 East Oakland Park Blvd, FL, 2, Oakland Park, FL 33306</t>
+  </si>
+  <si>
+    <t>8000 Biscayne Blvd, Miami, FL, 33138</t>
+  </si>
+  <si>
+    <t>3661 South Miami Ave, Ste 702, Miami, FL, 33133</t>
+  </si>
+  <si>
+    <t>1435 W 49th Place, Suite 503, Hialeah, FL, 33012</t>
+  </si>
+  <si>
+    <t>1951 NW 7th Ave, Suite 480, Miami, FL, 33136</t>
+  </si>
+  <si>
+    <t>1669 Collins Avenue, Miami Beach, FL, 33139</t>
+  </si>
+  <si>
+    <t>12295 Biscayne Blvd, North Miami, FL, 33181</t>
+  </si>
+  <si>
+    <t>21880 FL-7, Boca Raton, FL, 33428</t>
+  </si>
+  <si>
+    <t>601 E Commercial Blvd, Fort Lauderdale, FL, 33334</t>
+  </si>
+  <si>
+    <t>11105 Stirling Rd, Cooper City, FL, 33328</t>
+  </si>
+  <si>
+    <t>4200 SW 8th St, Coral Gables, FL, 33134</t>
+  </si>
+  <si>
+    <t>15255 SW 137th Ave, Miami, FL, 33177</t>
+  </si>
+  <si>
+    <t>1300 E Hallandale Beach Blvd, Hallandale Beach, FL, 33009</t>
+  </si>
+  <si>
+    <t>4895 Palm Ave, Hialeah, FL, 33012</t>
+  </si>
+  <si>
+    <t>4010 SW 137th Ave, Miami, FL, 33175</t>
+  </si>
+  <si>
+    <t>11690 SW 72nd St, Miami, FL, 33173</t>
+  </si>
+  <si>
+    <t>8790 W McNab Rd, Tamarac, FL, 33321</t>
+  </si>
+  <si>
+    <t>1751 Bonaventure Blvd, Weston, FL, 33326</t>
+  </si>
+  <si>
+    <t>11645 Biscayne Blvd, Suite 207, Miami, FL, 33181</t>
+  </si>
+  <si>
+    <t>1221 71st St, Miami Beach, FL, 33141</t>
+  </si>
+  <si>
+    <t>7900 NW 27th Ave, Suite E-12, Miami, FL, 33147-4909</t>
+  </si>
+  <si>
+    <t>1580 NW 10th Ave, Miami, FL, 33136</t>
+  </si>
+  <si>
+    <t>7000 SW 62nd Avenue, Suite 230, Miami, FL, 33143</t>
+  </si>
+  <si>
+    <t>4308 Alton Rd, Suite 860, Miami Beach, FL, 33140</t>
+  </si>
+  <si>
+    <t>3661 S Miami Ave, Suite 202, Miami, FL, 33133</t>
+  </si>
+  <si>
+    <t>1350 W 14 St, Miami, FL, 33125</t>
+  </si>
+  <si>
+    <t>18255 Homestead Ave, Miami, FL, 33157</t>
+  </si>
+  <si>
+    <t>2515 W Flagler St, Miami, FL, 33135</t>
+  </si>
+  <si>
+    <t>1668 NW 7th Ave, Miami, FL, 33136</t>
+  </si>
+  <si>
+    <t>3601 Federal Hwy, Miami, FL, 33137</t>
+  </si>
+  <si>
+    <t>2691 NE 2nd Ave, Miami, FL, 33137</t>
+  </si>
+  <si>
+    <t>5040 NW 7th St, Suite #170, Miami, FL, 33126</t>
+  </si>
+  <si>
+    <t>7801 NE 2nd Ave, Miami, FL, 33138</t>
+  </si>
+  <si>
+    <t>708 NE 125th St, North Miami, FL, 33161</t>
+  </si>
+  <si>
+    <t>12603 NE 7th Ave, North Miami, FL, 33161</t>
+  </si>
+  <si>
+    <t>10528 SW 8th St, Miami, FL, 33174</t>
+  </si>
+  <si>
+    <t>2800 N Andrews Ave, Wilton Manors, FL, 33311</t>
+  </si>
+  <si>
+    <t>501 SE 18th Ct, Fort Lauderdale, FL, 33316</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F975C666-F66F-4ED0-8AA2-F00CFF951ECC}">
   <dimension ref="A1:CS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,7 +2008,7 @@
   <sheetData>
     <row r="1" spans="1:97" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
@@ -2313,7 +2313,7 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>98</v>
@@ -2597,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -2606,7 +2606,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>98</v>
@@ -2890,19 +2890,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
       </c>
       <c r="G4" t="s">
         <v>99</v>
@@ -3183,19 +3183,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>99</v>
@@ -3476,22 +3476,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>112</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3769,22 +3769,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4062,22 +4062,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4355,22 +4355,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4648,22 +4648,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4941,22 +4941,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -5234,22 +5234,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5527,22 +5527,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
         <v>126</v>
       </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -5820,22 +5820,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -6113,22 +6113,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -6406,22 +6406,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -6699,22 +6699,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -6992,22 +6992,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7285,22 +7285,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -7578,22 +7578,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -7871,22 +7871,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -8164,22 +8164,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -8457,22 +8457,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -8750,22 +8750,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -9043,22 +9043,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
         <v>148</v>
       </c>
-      <c r="D25" t="s">
-        <v>154</v>
-      </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -9336,22 +9336,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -9629,22 +9629,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -9922,22 +9922,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
         <v>157</v>
       </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>166</v>
-      </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -10215,22 +10215,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -10508,22 +10508,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -10801,22 +10801,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -11094,22 +11094,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -11387,22 +11387,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -11680,22 +11680,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -11973,22 +11973,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -12266,22 +12266,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -12559,22 +12559,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
         <v>172</v>
       </c>
-      <c r="D37" t="s">
-        <v>182</v>
-      </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -12852,22 +12852,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -13145,22 +13145,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -13438,22 +13438,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -13731,22 +13731,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -14024,22 +14024,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -14317,22 +14317,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -14610,22 +14610,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
         <v>183</v>
       </c>
-      <c r="C44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" t="s">
-        <v>195</v>
-      </c>
       <c r="F44" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -14903,22 +14903,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -15196,22 +15196,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -15489,22 +15489,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -15782,22 +15782,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -16075,22 +16075,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -16368,22 +16368,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -16661,22 +16661,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -16954,22 +16954,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -17247,22 +17247,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -17540,22 +17540,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -17833,22 +17833,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G55" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -18126,22 +18126,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -18419,22 +18419,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -18712,22 +18712,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -19005,22 +19005,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -19298,22 +19298,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G60" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -19591,22 +19591,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -19884,22 +19884,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G62" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -20192,6 +20192,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001008B4EDBA94014FA166DC95F69A031B" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a8c944f4bd9402ff8a992f7f33f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99055cb7-e9fb-4ae3-be28-d81c7b0a794a" xmlns:ns3="8c8a5480-9e95-4a06-bfcb-571d9ef25dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af31915eb183a63fece39eb37dd20406" ns2:_="" ns3:_="">
     <xsd:import namespace="99055cb7-e9fb-4ae3-be28-d81c7b0a794a"/>
@@ -20452,15 +20461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477E794C-0666-4C1D-BF74-C0480725F59F}">
   <ds:schemaRefs>
@@ -20473,6 +20473,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA24F449-E678-4E5F-8060-E1F7464FFD10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3DD33D7-A468-43F8-9D2C-8DCED6F5F834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20489,12 +20497,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA24F449-E678-4E5F-8060-E1F7464FFD10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>